--- a/Data/Test.xlsx
+++ b/Data/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ExcelParser\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBED0A76-424B-4BCB-9E1E-1C2F49F4CE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DC8F07-FE9F-4A58-B135-11C584D3391C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="29400" windowHeight="16440" xr2:uid="{E4C5B84E-2226-4B75-8A6B-1448EC656258}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E4C5B84E-2226-4B75-8A6B-1448EC656258}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,22 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인덱스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,22 +58,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 전투 액션 그룹ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>몬스터 외형 아트 리소스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MonsterBAGroupID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MonsterAResource</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,14 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Melee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MeleeMonster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Monster/01_Undead/M_U_KT_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ChampionMonster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Monster/01_Undead/M_U_WR_02</t>
   </si>
   <si>
@@ -320,10 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BossMonster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Monster/99_Boss/Boss_U_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,6 +348,10 @@
   </si>
   <si>
     <t>Monster/99_Boss/Boss_W_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -863,21 +823,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D200D20-FC32-48CF-A344-16D1F8438946}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
     <col min="4" max="4" width="24.375" customWidth="1"/>
     <col min="5" max="5" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -885,44 +845,26 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -930,693 +872,447 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>10010101</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>10010102</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>10010103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>10020101</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>10020201</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>10020202</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>20010101</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>20010102</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>20010103</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>20020101</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>20020201</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>20020202</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>30010101</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>30010201</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>30010202</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>30020101</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>30020102</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>30020103</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>40010101</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>40010102</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>40010201</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>40020101</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>40020102</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>40020201</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>50010101</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>50010102</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>50010201</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>50020101</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>50020102</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>50020201</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>99010001</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>99010002</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>99020001</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>99020002</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>99030001</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>99030002</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>99040001</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>99040002</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>99050001</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>99050002</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test.xlsx
+++ b/Data/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ExcelParser\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DC8F07-FE9F-4A58-B135-11C584D3391C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15510ED-27F9-456E-B098-3141437D4ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E4C5B84E-2226-4B75-8A6B-1448EC656258}"/>
+    <workbookView xWindow="-35985" yWindow="1155" windowWidth="29400" windowHeight="16440" xr2:uid="{E4C5B84E-2226-4B75-8A6B-1448EC656258}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -826,7 +826,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
